--- a/Excel/Skill_Buff.xlsx
+++ b/Excel/Skill_Buff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neon\Desktop\Moba\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED13EFF-2D37-4F0C-9C55-EB789B91FFF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD0A3BE-71A4-466B-9361-4006FCE1F837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1152" yWindow="1152" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,6 +141,9 @@
   <si>
     <t>[10000]</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Area_heal_green</t>
   </si>
 </sst>
 </file>
@@ -471,7 +474,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -483,7 +486,7 @@
     <col min="6" max="6" width="21.77734375" customWidth="1"/>
     <col min="7" max="7" width="16.44140625" customWidth="1"/>
     <col min="8" max="8" width="16.5546875" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" customWidth="1"/>
+    <col min="9" max="9" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
@@ -596,6 +599,9 @@
       </c>
       <c r="H5">
         <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
